--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>User Details:</t>
   </si>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="22">
   <si>
     <t>User Details:</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>All Apps &amp; Tools</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cognizant shines at the Times Group Global Business Summit (GBS)</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
     </row>
     <row r="5">
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>14</v>

--- a/Excel/Data.xlsx
+++ b/Excel/Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304092\Eclipse-New\FN_TestNG\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04E8D2-4904-4544-BB87-CA7CA4864A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667D81C6-81EF-4214-A8E1-7D3D7C284FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{54E0EBE9-1CDD-43FE-991F-786198E6C728}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>User Details:</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Meet the finalists of the 2024 Impact Awards</t>
   </si>
   <si>
-    <t>Cognizant Flowsource™ will fuel the next generation of enterprise software engineering</t>
-  </si>
-  <si>
     <t>CEO blog: Elevating Cognizant’s stature on the world stage</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>All Apps &amp; Tools</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Cognizant shines at the Times Group Global Business Summit (GBS)</t>
@@ -108,7 +102,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,12 +119,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,112 +466,112 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="76.08984375"/>
-    <col min="2" max="2" customWidth="true" width="91.81640625"/>
-    <col min="3" max="3" customWidth="true" width="80.0"/>
-    <col min="4" max="4" customWidth="true" width="52.26953125"/>
+    <col min="1" max="1" width="76.08984375" customWidth="1"/>
+    <col min="2" max="2" width="91.81640625" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="52.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="0">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="0">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" t="s" s="0">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="D8" t="s" s="0">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="D10" t="s" s="0">
-        <v>19</v>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
